--- a/biology/Botanique/Nymphengarten/Nymphengarten.xlsx
+++ b/biology/Botanique/Nymphengarten/Nymphengarten.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Nymphengarten  (jardin des Nymphes) est un jardin public de Karlsruhe en Allemagne, dans le centre-ville.
 </t>
@@ -511,12 +523,14 @@
           <t>Description et histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Nymphengarten commence à l'arrière du nouveau pavillon du muséum d'histoire naturelle. La cour fédérale de justice (ancien palais du grand-duc héritier) se trouve du côté Ouest. Le jardin est bordé à l'est par la Lammstraße.
 C'est en 1730, quinze ans après la fondation de la ville, qu'un premier parc est aménagé à l'anglaise d'après le désir du margrave Charles-Guillaume de Bade-Durlach. Le prince héritier Louis commande quelques années plus tard à l'inspecteur des jardins Friedrich Schweickardt, qui avait aménagé le Fasanengarten (du Fasanenschlösschen), d'arranger le parc en jardin de loisir. En 1788, l'aménagement commence entouré d'un ha-ha. On donne au parc le nom de  Erbprinzengarten (jardin Prince-Héritier). Ce parc ne ressemble pas à l'endroit actuel.
 Après la construction du nouvel édifice du musée d'histoire naturelle par Karl Joseph Berckmüller en 1873, à l'emplacement du Erbprinzengarten, le parc devient au nord la Friedrichsplatz et au sud le Nymphengarten.
-Une fontaine est installée au sud selon l'idée du directeur des jardins Friedrich Ries. Le Nymphengarten doit son nom à cette fontaine réalisée en 1891 par Heinrich Weltring. En effet la fontaine est surmontée de deux statues de nymphes en bronze[1].
+Une fontaine est installée au sud selon l'idée du directeur des jardins Friedrich Ries. Le Nymphengarten doit son nom à cette fontaine réalisée en 1891 par Heinrich Weltring. En effet la fontaine est surmontée de deux statues de nymphes en bronze.
 Jusqu'en 1871 il y avait aussi une tour gothique et la chapelle funéraire de Charles-Louis de Bade avec son sarcophage, et jusqu'en 1944 l'Amalienschlösschen nommé d'après la margravine Amélie et situé dans la partie Ouest. 
 Dans les années 1880-1897, le Nymphengarten abrita temporairement l'observatoire avant qu'il ne soit démantelé et transféré au Königsstuhl près de Heidelberg.
 </t>
